--- a/model/datasets/Dengue_NCR.xlsx
+++ b/model/datasets/Dengue_NCR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cirrolytix\Hackathon\NASA Space Challenge 2019\01_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire\Documents\GitHub\nasa_hack\model\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DAEA09-8B08-400E-840E-7948A40EEBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3856E8B-25C1-477B-81E1-0ECB17B0EAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86AA2B33-C2F3-49C5-BF51-D8BC25F33613}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>GTrend_Dengue_Med</t>
   </si>
   <si>
-    <t>Gtrend_Dengue_Sym</t>
+    <t>GTrend_Dengue_Sym</t>
   </si>
 </sst>
 </file>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81422-99B9-4B7C-9E6A-A66317A03D57}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
